--- a/SourceData/protein_list.xlsx
+++ b/SourceData/protein_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShokenLEE/Desktop/Codes/git/ML_for_AH/SourceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8734E-04AC-8843-9CD5-C5FC9F970922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F78A4A-DB4E-8840-A1F4-6F1A2BF15412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{751BA834-8344-1446-9F70-19A7524424A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Entry</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>GMAP-210</t>
+  </si>
+  <si>
+    <t>P20606</t>
+  </si>
+  <si>
+    <t>Sar1p</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F33C79B-4BB5-4045-B8B5-04DD2A7464CC}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +486,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
